--- a/docs/YuhanTrust그님티_gantt-chart.xlsx
+++ b/docs/YuhanTrust그님티_gantt-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star1\Desktop\star\학교\유한대학교\3학년\YuhanTRUST그님티\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F56DA9F-B3A8-4D43-9286-C68EB5A64E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F80B6E2-E707-4692-8A30-BC85270B2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="2160" windowWidth="16380" windowHeight="16695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>WBS</t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>이수 현황 페이지, 필터링 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김려원,
+김은비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1616,9 +1625,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,31 +1666,34 @@
     </xf>
     <xf numFmtId="9" fontId="48" fillId="23" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1893,7 +1902,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$G$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$G$4" horiz="1" max="100" min="1" page="0" val="5"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2359,11 +2368,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM42"/>
+  <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BX48" sqref="BX48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2379,7 +2388,7 @@
     <col min="10" max="65" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
@@ -2389,31 +2398,31 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="H1" s="45"/>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
     </row>
-    <row r="2" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -2423,8 +2432,11 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="1"/>
+      <c r="BR2" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="G3" s="1"/>
@@ -2446,195 +2458,195 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:65" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="75">
         <v>45748</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="51"/>
       <c r="G4" s="44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="76" t="str">
+      <c r="J4" s="78" t="str">
         <f>"Week "&amp;(J6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="76" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="78" t="str">
         <f>"Week "&amp;(Q6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="76" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="78" t="str">
         <f>"Week "&amp;(X6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="76" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="78" t="str">
         <f>"Week "&amp;(AE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="76" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="78" t="str">
         <f>"Week "&amp;(AL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="76" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="78" t="str">
         <f>"Week "&amp;(AS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="76" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="78" t="str">
         <f>"Week "&amp;(AZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="76" t="str">
+        <v>Week 11</v>
+      </c>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="78" t="str">
         <f>"Week "&amp;(BG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="78"/>
+        <v>Week 12</v>
+      </c>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="79"/>
+      <c r="BM4" s="80"/>
     </row>
-    <row r="5" spans="1:65" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="52"/>
-      <c r="J5" s="79">
+      <c r="J5" s="81">
         <f>J6</f>
-        <v>45747</v>
-      </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="79">
+        <v>45775</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="81">
         <f>Q6</f>
-        <v>45754</v>
-      </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="79">
+        <v>45782</v>
+      </c>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="81">
         <f>X6</f>
-        <v>45761</v>
-      </c>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="79">
+        <v>45789</v>
+      </c>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="81">
         <f>AE6</f>
-        <v>45768</v>
-      </c>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="79">
+        <v>45796</v>
+      </c>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="81">
         <f>AL6</f>
-        <v>45775</v>
-      </c>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="79">
+        <v>45803</v>
+      </c>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="81">
         <f>AS6</f>
-        <v>45782</v>
-      </c>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="79">
+        <v>45810</v>
+      </c>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="81">
         <f>AZ6</f>
-        <v>45789</v>
-      </c>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="79">
+        <v>45817</v>
+      </c>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="83"/>
+      <c r="BG5" s="81">
         <f>BG6</f>
-        <v>45796</v>
-      </c>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="81"/>
+        <v>45824</v>
+      </c>
+      <c r="BH5" s="82"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="83"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2646,230 +2658,230 @@
       <c r="I6" s="7"/>
       <c r="J6" s="26">
         <f>C4-WEEKDAY(C4,1)+2+7*(G4-1)</f>
-        <v>45747</v>
+        <v>45775</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" ref="K6:AP6" si="0">J6+1</f>
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="L6" s="19">
         <f t="shared" si="0"/>
-        <v>45749</v>
+        <v>45777</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="0"/>
-        <v>45750</v>
+        <v>45778</v>
       </c>
       <c r="N6" s="19">
         <f t="shared" si="0"/>
-        <v>45751</v>
+        <v>45779</v>
       </c>
       <c r="O6" s="19">
         <f t="shared" si="0"/>
-        <v>45752</v>
+        <v>45780</v>
       </c>
       <c r="P6" s="27">
         <f t="shared" si="0"/>
-        <v>45753</v>
+        <v>45781</v>
       </c>
       <c r="Q6" s="26">
         <f t="shared" si="0"/>
-        <v>45754</v>
+        <v>45782</v>
       </c>
       <c r="R6" s="19">
         <f t="shared" si="0"/>
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" si="0"/>
-        <v>45756</v>
+        <v>45784</v>
       </c>
       <c r="T6" s="19">
         <f t="shared" si="0"/>
-        <v>45757</v>
+        <v>45785</v>
       </c>
       <c r="U6" s="19">
         <f t="shared" si="0"/>
-        <v>45758</v>
+        <v>45786</v>
       </c>
       <c r="V6" s="19">
         <f t="shared" si="0"/>
-        <v>45759</v>
+        <v>45787</v>
       </c>
       <c r="W6" s="27">
         <f t="shared" si="0"/>
-        <v>45760</v>
+        <v>45788</v>
       </c>
       <c r="X6" s="26">
         <f t="shared" si="0"/>
-        <v>45761</v>
+        <v>45789</v>
       </c>
       <c r="Y6" s="19">
         <f t="shared" si="0"/>
-        <v>45762</v>
+        <v>45790</v>
       </c>
       <c r="Z6" s="19">
         <f t="shared" si="0"/>
-        <v>45763</v>
+        <v>45791</v>
       </c>
       <c r="AA6" s="19">
         <f t="shared" si="0"/>
-        <v>45764</v>
+        <v>45792</v>
       </c>
       <c r="AB6" s="19">
         <f t="shared" si="0"/>
-        <v>45765</v>
+        <v>45793</v>
       </c>
       <c r="AC6" s="19">
         <f t="shared" si="0"/>
-        <v>45766</v>
+        <v>45794</v>
       </c>
       <c r="AD6" s="27">
         <f t="shared" si="0"/>
-        <v>45767</v>
+        <v>45795</v>
       </c>
       <c r="AE6" s="26">
         <f t="shared" si="0"/>
-        <v>45768</v>
+        <v>45796</v>
       </c>
       <c r="AF6" s="19">
         <f t="shared" si="0"/>
-        <v>45769</v>
+        <v>45797</v>
       </c>
       <c r="AG6" s="19">
         <f t="shared" si="0"/>
-        <v>45770</v>
+        <v>45798</v>
       </c>
       <c r="AH6" s="19">
         <f t="shared" si="0"/>
-        <v>45771</v>
+        <v>45799</v>
       </c>
       <c r="AI6" s="19">
         <f t="shared" si="0"/>
-        <v>45772</v>
+        <v>45800</v>
       </c>
       <c r="AJ6" s="19">
         <f t="shared" si="0"/>
-        <v>45773</v>
+        <v>45801</v>
       </c>
       <c r="AK6" s="27">
         <f t="shared" si="0"/>
-        <v>45774</v>
+        <v>45802</v>
       </c>
       <c r="AL6" s="26">
         <f t="shared" si="0"/>
-        <v>45775</v>
+        <v>45803</v>
       </c>
       <c r="AM6" s="19">
         <f t="shared" si="0"/>
-        <v>45776</v>
+        <v>45804</v>
       </c>
       <c r="AN6" s="19">
         <f t="shared" si="0"/>
-        <v>45777</v>
+        <v>45805</v>
       </c>
       <c r="AO6" s="19">
         <f t="shared" si="0"/>
-        <v>45778</v>
+        <v>45806</v>
       </c>
       <c r="AP6" s="19">
         <f t="shared" si="0"/>
-        <v>45779</v>
+        <v>45807</v>
       </c>
       <c r="AQ6" s="19">
         <f t="shared" ref="AQ6:BM6" si="1">AP6+1</f>
-        <v>45780</v>
+        <v>45808</v>
       </c>
       <c r="AR6" s="27">
         <f t="shared" si="1"/>
-        <v>45781</v>
+        <v>45809</v>
       </c>
       <c r="AS6" s="26">
         <f t="shared" si="1"/>
-        <v>45782</v>
+        <v>45810</v>
       </c>
       <c r="AT6" s="19">
         <f t="shared" si="1"/>
-        <v>45783</v>
+        <v>45811</v>
       </c>
       <c r="AU6" s="19">
         <f t="shared" si="1"/>
-        <v>45784</v>
+        <v>45812</v>
       </c>
       <c r="AV6" s="19">
         <f t="shared" si="1"/>
-        <v>45785</v>
+        <v>45813</v>
       </c>
       <c r="AW6" s="19">
         <f t="shared" si="1"/>
-        <v>45786</v>
+        <v>45814</v>
       </c>
       <c r="AX6" s="19">
         <f t="shared" si="1"/>
-        <v>45787</v>
+        <v>45815</v>
       </c>
       <c r="AY6" s="27">
         <f t="shared" si="1"/>
-        <v>45788</v>
+        <v>45816</v>
       </c>
       <c r="AZ6" s="26">
         <f t="shared" si="1"/>
-        <v>45789</v>
+        <v>45817</v>
       </c>
       <c r="BA6" s="19">
         <f t="shared" si="1"/>
-        <v>45790</v>
+        <v>45818</v>
       </c>
       <c r="BB6" s="19">
         <f t="shared" si="1"/>
-        <v>45791</v>
+        <v>45819</v>
       </c>
       <c r="BC6" s="19">
         <f t="shared" si="1"/>
-        <v>45792</v>
+        <v>45820</v>
       </c>
       <c r="BD6" s="19">
         <f t="shared" si="1"/>
-        <v>45793</v>
+        <v>45821</v>
       </c>
       <c r="BE6" s="19">
         <f t="shared" si="1"/>
-        <v>45794</v>
+        <v>45822</v>
       </c>
       <c r="BF6" s="27">
         <f t="shared" si="1"/>
-        <v>45795</v>
+        <v>45823</v>
       </c>
       <c r="BG6" s="26">
         <f t="shared" si="1"/>
-        <v>45796</v>
+        <v>45824</v>
       </c>
       <c r="BH6" s="19">
         <f t="shared" si="1"/>
-        <v>45797</v>
+        <v>45825</v>
       </c>
       <c r="BI6" s="19">
         <f t="shared" si="1"/>
-        <v>45798</v>
+        <v>45826</v>
       </c>
       <c r="BJ6" s="19">
         <f t="shared" si="1"/>
-        <v>45799</v>
+        <v>45827</v>
       </c>
       <c r="BK6" s="19">
         <f t="shared" si="1"/>
-        <v>45800</v>
+        <v>45828</v>
       </c>
       <c r="BL6" s="19">
         <f t="shared" si="1"/>
-        <v>45801</v>
+        <v>45829</v>
       </c>
       <c r="BM6" s="27">
         <f t="shared" si="1"/>
-        <v>45802</v>
+        <v>45830</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -3198,7 +3210,7 @@
       <c r="BL8" s="31"/>
       <c r="BM8" s="31"/>
     </row>
-    <row r="9" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3280,7 +3292,7 @@
       <c r="BL9" s="15"/>
       <c r="BM9" s="15"/>
     </row>
-    <row r="10" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1.2</v>
       </c>
@@ -3362,7 +3374,7 @@
       <c r="BL10" s="15"/>
       <c r="BM10" s="15"/>
     </row>
-    <row r="11" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>1.3</v>
       </c>
@@ -3444,7 +3456,7 @@
       <c r="BL11" s="15"/>
       <c r="BM11" s="15"/>
     </row>
-    <row r="12" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3538,7 @@
       <c r="BL12" s="15"/>
       <c r="BM12" s="15"/>
     </row>
-    <row r="13" spans="1:65" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>1.5</v>
       </c>
@@ -3608,7 +3620,7 @@
       <c r="BL13" s="15"/>
       <c r="BM13" s="15"/>
     </row>
-    <row r="14" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>1.6</v>
       </c>
@@ -3690,7 +3702,7 @@
       <c r="BL14" s="15"/>
       <c r="BM14" s="15"/>
     </row>
-    <row r="15" spans="1:65" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -3762,7 +3774,7 @@
       <c r="BL15" s="31"/>
       <c r="BM15" s="31"/>
     </row>
-    <row r="16" spans="1:65" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>2.1</v>
       </c>
@@ -3851,7 +3863,7 @@
       <c r="B17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="43"/>
@@ -4097,7 +4109,7 @@
         <v>45785</v>
       </c>
       <c r="G20" s="18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="17">
         <f>IF(OR(ISBLANK(F20), ISBLANK(E20)), "-", F20-E20+1)</f>
@@ -4179,7 +4191,7 @@
         <v>45785</v>
       </c>
       <c r="G21" s="18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ref="H21:H22" si="5">IF(OR(ISBLANK(F21), ISBLANK(E21)), "-", F21-E21+1)</f>
@@ -5059,10 +5071,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="60"/>
-      <c r="E32" s="61">
+      <c r="E32" s="76">
         <v>45858</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="61">
         <v>45892</v>
       </c>
       <c r="G32" s="18">
@@ -5072,7 +5084,7 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -5141,10 +5153,10 @@
         <v>44</v>
       </c>
       <c r="D33" s="60"/>
-      <c r="E33" s="61">
+      <c r="E33" s="76">
         <v>45858</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="61">
         <v>45892</v>
       </c>
       <c r="G33" s="18">
@@ -5154,7 +5166,7 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -5223,10 +5235,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="60"/>
-      <c r="E34" s="61">
+      <c r="E34" s="76">
         <v>45872</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="61">
         <v>45892</v>
       </c>
       <c r="G34" s="18">
@@ -5236,7 +5248,7 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -5294,7 +5306,7 @@
       <c r="BL34" s="15"/>
       <c r="BM34" s="15"/>
     </row>
-    <row r="35" spans="1:65" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:65" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
@@ -5365,169 +5377,169 @@
       <c r="BL35" s="33"/>
       <c r="BM35" s="33"/>
     </row>
-    <row r="36" spans="1:65" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="66">
+    <row r="36" spans="1:65" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="65">
         <v>6.1</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="74">
+      <c r="C36" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="73">
         <v>45893</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="67">
         <v>45906</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="74">
         <v>0</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="68">
         <f>IF(OR(ISBLANK(F36), ISBLANK(E36)), "-", F36-E36+1)</f>
         <v>14</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="66"/>
-      <c r="BA36" s="66"/>
-      <c r="BB36" s="66"/>
-      <c r="BC36" s="66"/>
-      <c r="BD36" s="66"/>
-      <c r="BE36" s="66"/>
-      <c r="BF36" s="66"/>
-      <c r="BG36" s="66"/>
-      <c r="BH36" s="66"/>
-      <c r="BI36" s="66"/>
-      <c r="BJ36" s="66"/>
-      <c r="BK36" s="66"/>
-      <c r="BL36" s="66"/>
-      <c r="BM36" s="66"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+      <c r="BB36" s="65"/>
+      <c r="BC36" s="65"/>
+      <c r="BD36" s="65"/>
+      <c r="BE36" s="65"/>
+      <c r="BF36" s="65"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="65"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
     </row>
-    <row r="37" spans="1:65" s="71" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="66">
+    <row r="37" spans="1:65" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="65">
         <v>6.2</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="74">
+      <c r="D37" s="66"/>
+      <c r="E37" s="73">
         <v>45907</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="67">
         <v>45927</v>
       </c>
-      <c r="G37" s="75">
+      <c r="G37" s="74">
         <v>0</v>
       </c>
-      <c r="H37" s="69">
-        <f t="shared" ref="H37:H42" si="7">IF(OR(ISBLANK(F37), ISBLANK(E37)), "-", F37-E37+1)</f>
+      <c r="H37" s="68">
+        <f t="shared" ref="H37" si="7">IF(OR(ISBLANK(F37), ISBLANK(E37)), "-", F37-E37+1)</f>
         <v>21</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
-      <c r="BA37" s="66"/>
-      <c r="BB37" s="66"/>
-      <c r="BC37" s="66"/>
-      <c r="BD37" s="66"/>
-      <c r="BE37" s="66"/>
-      <c r="BF37" s="66"/>
-      <c r="BG37" s="66"/>
-      <c r="BH37" s="66"/>
-      <c r="BI37" s="66"/>
-      <c r="BJ37" s="66"/>
-      <c r="BK37" s="66"/>
-      <c r="BL37" s="66"/>
-      <c r="BM37" s="66"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="65"/>
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="65"/>
+      <c r="BC37" s="65"/>
+      <c r="BD37" s="65"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="65"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="65"/>
+      <c r="BI37" s="65"/>
+      <c r="BJ37" s="65"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
     </row>
     <row r="38" spans="1:65" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="str">
@@ -5537,12 +5549,12 @@
       <c r="B38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="12"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="73"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="30"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
@@ -5601,346 +5613,337 @@
       <c r="BL38" s="33"/>
       <c r="BM38" s="33"/>
     </row>
-    <row r="39" spans="1:65" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="66">
+    <row r="39" spans="1:65" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="65">
         <v>7.1</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="74">
+      <c r="D39" s="66"/>
+      <c r="E39" s="73">
         <v>45791</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="67">
         <v>45791</v>
       </c>
-      <c r="G39" s="75">
+      <c r="G39" s="74">
         <v>0</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="7"/>
+        <f>IF(OR(ISBLANK(F39), ISBLANK(E39)), "-", F39-E39+1)</f>
         <v>1</v>
       </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="66"/>
-      <c r="BA39" s="66"/>
-      <c r="BB39" s="66"/>
-      <c r="BC39" s="66"/>
-      <c r="BD39" s="66"/>
-      <c r="BE39" s="66"/>
-      <c r="BF39" s="66"/>
-      <c r="BG39" s="66"/>
-      <c r="BH39" s="66"/>
-      <c r="BI39" s="66"/>
-      <c r="BJ39" s="66"/>
-      <c r="BK39" s="66"/>
-      <c r="BL39" s="66"/>
-      <c r="BM39" s="66"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="65"/>
+      <c r="AP39" s="65"/>
+      <c r="AQ39" s="65"/>
+      <c r="AR39" s="65"/>
+      <c r="AS39" s="65"/>
+      <c r="AT39" s="65"/>
+      <c r="AU39" s="65"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="65"/>
+      <c r="BA39" s="65"/>
+      <c r="BB39" s="65"/>
+      <c r="BC39" s="65"/>
+      <c r="BD39" s="65"/>
+      <c r="BE39" s="65"/>
+      <c r="BF39" s="65"/>
+      <c r="BG39" s="65"/>
+      <c r="BH39" s="65"/>
+      <c r="BI39" s="65"/>
+      <c r="BJ39" s="65"/>
+      <c r="BK39" s="65"/>
+      <c r="BL39" s="65"/>
+      <c r="BM39" s="65"/>
     </row>
-    <row r="40" spans="1:65" s="71" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+    <row r="40" spans="1:65" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="74">
+      <c r="D40" s="66"/>
+      <c r="E40" s="73">
         <v>45780</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="67">
         <v>45788</v>
       </c>
-      <c r="G40" s="75">
+      <c r="G40" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="17">
+        <f>IF(OR(ISBLANK(F40), ISBLANK(E40)), "-", F40-E40+1)</f>
+        <v>9</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="65"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="65"/>
+      <c r="AV40" s="65"/>
+      <c r="AW40" s="65"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="65"/>
+      <c r="BC40" s="65"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
+      <c r="BI40" s="65"/>
+      <c r="BJ40" s="65"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="65"/>
+      <c r="BM40" s="65"/>
+    </row>
+    <row r="41" spans="1:65" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="65">
+        <v>7.2</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="73">
+        <v>45966</v>
+      </c>
+      <c r="F41" s="67">
+        <v>45966</v>
+      </c>
+      <c r="G41" s="74">
         <v>0</v>
       </c>
-      <c r="H40" s="17">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="66"/>
-      <c r="AU40" s="66"/>
-      <c r="AV40" s="66"/>
-      <c r="AW40" s="66"/>
-      <c r="AX40" s="66"/>
-      <c r="AY40" s="66"/>
-      <c r="AZ40" s="66"/>
-      <c r="BA40" s="66"/>
-      <c r="BB40" s="66"/>
-      <c r="BC40" s="66"/>
-      <c r="BD40" s="66"/>
-      <c r="BE40" s="66"/>
-      <c r="BF40" s="66"/>
-      <c r="BG40" s="66"/>
-      <c r="BH40" s="66"/>
-      <c r="BI40" s="66"/>
-      <c r="BJ40" s="66"/>
-      <c r="BK40" s="66"/>
-      <c r="BL40" s="66"/>
-      <c r="BM40" s="66"/>
+      <c r="H41" s="17">
+        <f>IF(OR(ISBLANK(F41), ISBLANK(E41)), "-", F41-E41+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="69"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="65"/>
+      <c r="BB41" s="65"/>
+      <c r="BC41" s="65"/>
+      <c r="BD41" s="65"/>
+      <c r="BE41" s="65"/>
+      <c r="BF41" s="65"/>
+      <c r="BG41" s="65"/>
+      <c r="BH41" s="65"/>
+      <c r="BI41" s="65"/>
+      <c r="BJ41" s="65"/>
+      <c r="BK41" s="65"/>
+      <c r="BL41" s="65"/>
+      <c r="BM41" s="65"/>
     </row>
-    <row r="41" spans="1:65" s="71" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="66">
-        <v>7.2</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="74">
-        <v>45966</v>
-      </c>
-      <c r="F41" s="68">
-        <v>45966</v>
-      </c>
-      <c r="G41" s="75">
+    <row r="42" spans="1:65" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="73">
+        <v>45931</v>
+      </c>
+      <c r="F42" s="67">
+        <v>45961</v>
+      </c>
+      <c r="G42" s="74">
         <v>0</v>
       </c>
-      <c r="H41" s="17">
-        <f t="shared" ref="H41" si="8">IF(OR(ISBLANK(F41), ISBLANK(E41)), "-", F41-E41+1)</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="70"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="66"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="66"/>
-      <c r="AW41" s="66"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="66"/>
-      <c r="AZ41" s="66"/>
-      <c r="BA41" s="66"/>
-      <c r="BB41" s="66"/>
-      <c r="BC41" s="66"/>
-      <c r="BD41" s="66"/>
-      <c r="BE41" s="66"/>
-      <c r="BF41" s="66"/>
-      <c r="BG41" s="66"/>
-      <c r="BH41" s="66"/>
-      <c r="BI41" s="66"/>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="66"/>
-      <c r="BL41" s="66"/>
-      <c r="BM41" s="66"/>
-    </row>
-    <row r="42" spans="1:65" s="71" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="74">
-        <v>45931</v>
-      </c>
-      <c r="F42" s="68">
-        <v>45961</v>
-      </c>
-      <c r="G42" s="75">
-        <v>0</v>
-      </c>
       <c r="H42" s="17">
-        <f t="shared" si="7"/>
+        <f>IF(OR(ISBLANK(F42), ISBLANK(E42)), "-", F42-E42+1)</f>
         <v>31</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="66"/>
-      <c r="AT42" s="66"/>
-      <c r="AU42" s="66"/>
-      <c r="AV42" s="66"/>
-      <c r="AW42" s="66"/>
-      <c r="AX42" s="66"/>
-      <c r="AY42" s="66"/>
-      <c r="AZ42" s="66"/>
-      <c r="BA42" s="66"/>
-      <c r="BB42" s="66"/>
-      <c r="BC42" s="66"/>
-      <c r="BD42" s="66"/>
-      <c r="BE42" s="66"/>
-      <c r="BF42" s="66"/>
-      <c r="BG42" s="66"/>
-      <c r="BH42" s="66"/>
-      <c r="BI42" s="66"/>
-      <c r="BJ42" s="66"/>
-      <c r="BK42" s="66"/>
-      <c r="BL42" s="66"/>
-      <c r="BM42" s="66"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="65"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="65"/>
+      <c r="AV42" s="65"/>
+      <c r="AW42" s="65"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
+      <c r="BA42" s="65"/>
+      <c r="BB42" s="65"/>
+      <c r="BC42" s="65"/>
+      <c r="BD42" s="65"/>
+      <c r="BE42" s="65"/>
+      <c r="BF42" s="65"/>
+      <c r="BG42" s="65"/>
+      <c r="BH42" s="65"/>
+      <c r="BI42" s="65"/>
+      <c r="BJ42" s="65"/>
+      <c r="BK42" s="65"/>
+      <c r="BL42" s="65"/>
+      <c r="BM42" s="65"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="19">
-    <mergeCell ref="J1:AD1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="X5:AD5"/>
+  <mergeCells count="17">
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="BG4:BM4"/>
@@ -5951,6 +5954,13 @@
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="J1:AD1"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="X5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:E1048576">
@@ -6067,4 +6077,245 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003D2E11E936D31D4FBBD2718D941317B8" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="dcd86db1d4eaf9d7fc3c7fbd225be353">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c144ff4ecaf2d5e4a0ac19cc9a138f68" ns3:_="">
+    <xsd:import namespace="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="13" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14EB1CAF-16F9-4501-BFAF-D3E74C0B25F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{524AAFDB-FAD8-4913-938C-D3155A43495C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a654d13-ad2b-4c45-ab5c-0fbd686c5ee4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5295D548-AAAB-4A56-B1FE-177050140327}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>